--- a/data/defaultParameterValues.xlsx
+++ b/data/defaultParameterValues.xlsx
@@ -175,8 +175,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -310,628 +314,628 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="n">
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>0.00178</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <v>2.73</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="n">
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="n">
         <v>990</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1" t="n">
+      <c r="N2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="n">
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>0.00178</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <v>2.73</v>
       </c>
-      <c r="J3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="n">
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
         <v>990</v>
       </c>
-      <c r="N3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1" t="n">
+      <c r="N3" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="R3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S3" s="1" t="n">
+      <c r="R3" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="S3" s="2" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="n">
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>0.00178</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <v>2.73</v>
       </c>
-      <c r="J4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="n">
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
         <v>990</v>
       </c>
-      <c r="N4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1" t="n">
+      <c r="N4" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="R4" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="n">
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>0.00178</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2" t="n">
         <v>2.73</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1" t="n">
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
         <v>990</v>
       </c>
-      <c r="N5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1" t="n">
+      <c r="N5" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="R5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S5" s="1" t="n">
+      <c r="R5" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="S5" s="2" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="n">
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>0.001</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>0.05</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="n">
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="n">
         <v>499</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="N6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1" t="n">
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="R6" s="1" t="n">
+      <c r="R6" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="n">
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>0.001</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="2" t="n">
         <v>0.05</v>
       </c>
-      <c r="J7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1" t="n">
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
         <v>499</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="N7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1" t="n">
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="R7" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S7" s="1" t="n">
+      <c r="R7" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="S7" s="2" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="1" t="n">
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="J8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="M8" s="1" t="n">
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M8" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="N8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1" t="n">
+      <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="R8" s="1" t="n">
+      <c r="R8" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="S8" s="1" t="n">
+      <c r="S8" s="2" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="1" t="n">
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="J9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="M9" s="1" t="n">
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M9" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="N9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1" t="n">
+      <c r="N9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="R9" s="1" t="n">
+      <c r="R9" s="2" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="1" t="n">
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="J10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="M10" s="1" t="n">
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="N10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1" t="n">
+      <c r="N10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="R10" s="1" t="n">
+      <c r="R10" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="S10" s="1" t="n">
+      <c r="S10" s="2" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="1" t="n">
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="J11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="M11" s="1" t="n">
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="N11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1" t="n">
+      <c r="N11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="R11" s="1" t="n">
+      <c r="R11" s="2" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="1" t="n">
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="2" t="n">
         <v>0.05</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="J12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="M12" s="1" t="n">
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M12" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="N12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1" t="n">
+      <c r="N12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="R12" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="S12" s="1" t="n">
+      <c r="R12" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="S12" s="2" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="1" t="n">
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="2" t="n">
         <v>0.05</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="J13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="M13" s="1" t="n">
+      <c r="J13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M13" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="N13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1" t="n">
+      <c r="N13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="R13" s="1" t="n">
+      <c r="R13" s="2" t="n">
         <v>50</v>
       </c>
     </row>
